--- a/de_para_siglas_bundesliga.xlsx
+++ b/de_para_siglas_bundesliga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Google Drive\Projetos\SofaScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C613FEE-96C2-4F52-8277-EF50E1D61B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B51DE-2BC2-4C60-942F-369FE041BED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$68</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <t>time</t>
   </si>
@@ -142,6 +142,213 @@
   </si>
   <si>
     <t>BLK</t>
+  </si>
+  <si>
+    <t>Bayern München</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
+    <t>Bayer 04 Leverkusen</t>
+  </si>
+  <si>
+    <t>SC Paderborn 07</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>1. FSV Mainz 05</t>
+  </si>
+  <si>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>1. FC Köln</t>
+  </si>
+  <si>
+    <t>KOL</t>
+  </si>
+  <si>
+    <t>Borussia M'gladbach</t>
+  </si>
+  <si>
+    <t>FC Schalke 04</t>
+  </si>
+  <si>
+    <t>1899 Hoffenheim</t>
+  </si>
+  <si>
+    <t>1. FC Union Berlin</t>
+  </si>
+  <si>
+    <t>1. FC Nürnberg</t>
+  </si>
+  <si>
+    <t>NUR</t>
+  </si>
+  <si>
+    <t>Hannover 96</t>
+  </si>
+  <si>
+    <t>H96</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart</t>
+  </si>
+  <si>
+    <t>STU</t>
+  </si>
+  <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>HSV</t>
+  </si>
+  <si>
+    <t>Darmstadt 98</t>
+  </si>
+  <si>
+    <t>D98</t>
+  </si>
+  <si>
+    <t>Ingolstadt</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>Eintracht Braunschweig</t>
+  </si>
+  <si>
+    <t>EBR</t>
+  </si>
+  <si>
+    <t>SpVgg Greuther Fürth</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>1. FC Kaiserslautern</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>FC Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>FC Nürnberg</t>
+  </si>
+  <si>
+    <t>Nürnberg</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>FC Köln</t>
+  </si>
+  <si>
+    <t>FC Union Berlin</t>
+  </si>
+  <si>
+    <t>FSV Mainz 05</t>
+  </si>
+  <si>
+    <t>FC St. Pauli</t>
+  </si>
+  <si>
+    <t>St. Pauli</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>VfL Bochum</t>
+  </si>
+  <si>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Energie Cottbus</t>
+  </si>
+  <si>
+    <t>CTT</t>
+  </si>
+  <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
+    <t>KAR</t>
+  </si>
+  <si>
+    <t>Hansa Rostock</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
+    <t>DUI</t>
+  </si>
+  <si>
+    <t>Alemannia Aachen</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>1860 München</t>
+  </si>
+  <si>
+    <t>MUN</t>
+  </si>
+  <si>
+    <t>Hertha</t>
+  </si>
+  <si>
+    <t>Bayern M.</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Fortuna</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>M'gladbach</t>
+  </si>
+  <si>
+    <t>E. Frankfurt</t>
+  </si>
+  <si>
+    <t>Hannover</t>
   </si>
 </sst>
 </file>
@@ -177,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +395,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,181 +741,577 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+      <c r="A57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/de_para_siglas_bundesliga.xlsx
+++ b/de_para_siglas_bundesliga.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Google Drive\Projetos\SofaScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B51DE-2BC2-4C60-942F-369FE041BED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE96DA67-BBFC-4E57-8595-5932356DDB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$69</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>time</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Hannover</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,47 +1169,47 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>69</v>
@@ -1214,7 +1217,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>69</v>
@@ -1222,15 +1225,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>80</v>
@@ -1238,80 +1241,92 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B69" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/de_para_siglas_bundesliga.xlsx
+++ b/de_para_siglas_bundesliga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Google Drive\Projetos\SofaScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE96DA67-BBFC-4E57-8595-5932356DDB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D80D8-CB62-4265-A993-272AC13923CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$70</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>time</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
   </si>
 </sst>
 </file>
@@ -722,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,40 +1187,40 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>62</v>
+      <c r="A57" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>69</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>69</v>
@@ -1233,15 +1236,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>80</v>
@@ -1249,84 +1252,92 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-    </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B69" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/de_para_siglas_bundesliga.xlsx
+++ b/de_para_siglas_bundesliga.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Google Drive\Projetos\SofaScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D80D8-CB62-4265-A993-272AC13923CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A04424-592D-4D08-8924-C117E158325F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$B$113</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>time</t>
   </si>
@@ -355,6 +355,168 @@
   </si>
   <si>
     <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>Dynamo Dresden</t>
+  </si>
+  <si>
+    <t>AUE</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue</t>
+  </si>
+  <si>
+    <t>Greuther Fuerth</t>
+  </si>
+  <si>
+    <t>Hamburg SV</t>
+  </si>
+  <si>
+    <t>Hanover 96</t>
+  </si>
+  <si>
+    <t>HEI</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>HKI</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>JAH</t>
+  </si>
+  <si>
+    <t>Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>Nuremberg</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>Sandhausen</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>OSN</t>
+  </si>
+  <si>
+    <t>Vfl Osnabrueck</t>
+  </si>
+  <si>
+    <t>WEH</t>
+  </si>
+  <si>
+    <t>Wehen Wiesbaden</t>
+  </si>
+  <si>
+    <t>SSV Jahn Regensburg</t>
+  </si>
+  <si>
+    <t>SV Sandhausen</t>
+  </si>
+  <si>
+    <t>1. FC Magdeburg</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>FC Magdeburg</t>
+  </si>
+  <si>
+    <t>1. FC Heidenheim</t>
+  </si>
+  <si>
+    <t>FC Heidenheim</t>
+  </si>
+  <si>
+    <t>FC Würzburger Kickers</t>
+  </si>
+  <si>
+    <t>WKI</t>
+  </si>
+  <si>
+    <t>Würzburger Kickers</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers</t>
+  </si>
+  <si>
+    <t>FSV Frankfurt</t>
+  </si>
+  <si>
+    <t>FSV</t>
+  </si>
+  <si>
+    <t>VfL Osnabrück</t>
+  </si>
+  <si>
+    <t>VfR Aalen</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>RW Oberhausen</t>
+  </si>
+  <si>
+    <t>RWO</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Kiel</t>
+  </si>
+  <si>
+    <t>Osnabrück</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Aue</t>
+  </si>
+  <si>
+    <t>Fürth</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Wehen</t>
+  </si>
+  <si>
+    <t>Bielefeld</t>
+  </si>
+  <si>
+    <t>Aalen</t>
+  </si>
+  <si>
+    <t>Aachen</t>
+  </si>
+  <si>
+    <t>Duisburg</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
   </si>
 </sst>
 </file>
@@ -390,27 +552,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,597 +895,927 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B94" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B102" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B103" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B104" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B105" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B106" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B112" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B113" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B113" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B113">
+      <sortCondition ref="B1:B113"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
